--- a/va_facility_data_2025-02-20/East Liverpool VA Clinic - Facility Data.xlsx"; filename*=UTF-8''East%20Liverpool%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/East Liverpool VA Clinic - Facility Data.xlsx"; filename*=UTF-8''East%20Liverpool%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R41f34d1652464832b31074c616ce3d3f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1fd682888fdd4fa492951d5610f039d7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8e3f46ecd390406b9d3b67878b0bd94e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9b33366754ca4d54a2cc7c3151f03e36"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rec2299e481974197954183e5ef23a4a6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfb39209f06c94af0ae7edd9e970bbdbc"/>
   </x:sheets>
 </x:workbook>
 </file>
